--- a/biology/Médecine/Os_palatin/Os_palatin.xlsx
+++ b/biology/Médecine/Os_palatin/Os_palatin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'os palatin est un os pair participant à la formation du palais osseux et des parois des cavités nasales.
 Il s'articule avec les os maxillaires, l'os sphénoïde, l'os ethmoïde, les cornets nasaux inférieurs, le vomer et son vis-à-vis.
@@ -513,7 +525,9 @@
           <t>La lame horizontale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elle est de forme quadrilatère et présente deux faces et quatre bords :
 la face supérieure concave participe au plancher de la cavité nasale (anciennement fosses nasales) ;
@@ -549,7 +563,9 @@
           <t>La lame perpendiculaire (ou verticale)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De forme quadrilatère elle aussi, elle est plus grande et plus mince que la lame horizontale. On lui distingue aussi deux faces et quatre bords :
 la face médiale constitue la partie postérieure de la paroi externe des fosses nasales. Elle présente de haut en bas
@@ -604,7 +620,9 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'os palatin est d'origine membraneuse avec l'apparition d'un point d'ossification à la 8ème semaine de grossesse à la jonction de la lame perpendiculaire et de la lame horizontale.
 </t>
@@ -635,12 +653,14 @@
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les poissons osseux, l'os palatin se compose uniquement de la plaque perpendiculaire, située sur le bord interne du maxillaire. La face inférieure de l'os peut porter plusieurs dents, formant une seconde rangée derrière celles du maxillaire. Dans de nombreux cas, celles-ci sont en fait plus grandes que les dents maxillaires. Bien qu'un schéma similaire soit présent chez les tétrapodes primitifs, l'os palatin est réduit chez la plupart des amphibiens ne formant, chez les grenouilles et les salamandres, qu'une barre étroite entre le vomer et le maxillaire[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les poissons osseux, l'os palatin se compose uniquement de la plaque perpendiculaire, située sur le bord interne du maxillaire. La face inférieure de l'os peut porter plusieurs dents, formant une seconde rangée derrière celles du maxillaire. Dans de nombreux cas, celles-ci sont en fait plus grandes que les dents maxillaires. Bien qu'un schéma similaire soit présent chez les tétrapodes primitifs, l'os palatin est réduit chez la plupart des amphibiens ne formant, chez les grenouilles et les salamandres, qu'une barre étroite entre le vomer et le maxillaire.
 Les premiers reptiles fossiles ont conservé l'arrangement observé chez les vertébrés plus primitifs. Mais chez les mammifères, la surface inférieure du palatin s'est repliée au cours de l'évolution, formant la plaque horizontale et se rejoignant dans la ligne médiane de la bouche. Cela forme l'arrière du palais dur, séparant les cavités buccale et nasale et facilitant la respiration en mangeant. Une évolution parallèle s'est produite à des degrés divers chez de nombreux reptiles, atteignant son apogée chez les crocodiliens.
-Chez les oiseaux, les os palatins restent séparés, le long des côtés de la partie arrière de la mâchoire supérieure, et ont généralement une articulation mobile avec le crâne[1].
-Il existe de nombreuses variations parmi les mammifères, les amphibiens et d'autres espèces. Par exemple, l'os palatin de nombreux amphibiens tels que le triton à peau rugueuse se manifeste par une structure distincte en forme de V[2]. Dans le cas des chats, les éléments horizontaux et verticaux se rejoignent à un angle de quarante-cinq degrés[3].
+Chez les oiseaux, les os palatins restent séparés, le long des côtés de la partie arrière de la mâchoire supérieure, et ont généralement une articulation mobile avec le crâne.
+Il existe de nombreuses variations parmi les mammifères, les amphibiens et d'autres espèces. Par exemple, l'os palatin de nombreux amphibiens tels que le triton à peau rugueuse se manifeste par une structure distincte en forme de V. Dans le cas des chats, les éléments horizontaux et verticaux se rejoignent à un angle de quarante-cinq degrés.
 </t>
         </is>
       </c>
